--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/L1cam-Ephb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/L1cam-Ephb2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.59487733333333</v>
+        <v>7.741029</v>
       </c>
       <c r="H2">
-        <v>67.78463199999999</v>
+        <v>23.223087</v>
       </c>
       <c r="I2">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="J2">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.005965999999999999</v>
+        <v>0.0006136666666666667</v>
       </c>
       <c r="N2">
-        <v>0.017898</v>
+        <v>0.001841</v>
       </c>
       <c r="O2">
-        <v>0.00125947234315407</v>
+        <v>0.000129696697123199</v>
       </c>
       <c r="P2">
-        <v>0.001259472343154069</v>
+        <v>0.000129696697123199</v>
       </c>
       <c r="Q2">
-        <v>0.1348010381706666</v>
+        <v>0.004750411463</v>
       </c>
       <c r="R2">
-        <v>1.213209343536</v>
+        <v>0.042753703167</v>
       </c>
       <c r="S2">
-        <v>0.0009313822604804837</v>
+        <v>6.394678705245989E-05</v>
       </c>
       <c r="T2">
-        <v>0.0009313822604804836</v>
+        <v>6.394678705245989E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.59487733333333</v>
+        <v>7.741029</v>
       </c>
       <c r="H3">
-        <v>67.78463199999999</v>
+        <v>23.223087</v>
       </c>
       <c r="I3">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="J3">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>11.465328</v>
       </c>
       <c r="O3">
-        <v>0.8068087787009702</v>
+        <v>0.8077214410831794</v>
       </c>
       <c r="P3">
-        <v>0.8068087787009701</v>
+        <v>0.8077214410831794</v>
       </c>
       <c r="Q3">
-        <v>86.35255991547733</v>
+        <v>29.584478847504</v>
       </c>
       <c r="R3">
-        <v>777.1730392392959</v>
+        <v>266.260309627536</v>
       </c>
       <c r="S3">
-        <v>0.5966366694485521</v>
+        <v>0.3982460011420999</v>
       </c>
       <c r="T3">
-        <v>0.596636669448552</v>
+        <v>0.3982460011420999</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.59487733333333</v>
+        <v>7.741029</v>
       </c>
       <c r="H4">
-        <v>67.78463199999999</v>
+        <v>23.223087</v>
       </c>
       <c r="I4">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="J4">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>2.727487</v>
       </c>
       <c r="O4">
-        <v>0.1919317489558758</v>
+        <v>0.1921488622196973</v>
       </c>
       <c r="P4">
-        <v>0.1919317489558757</v>
+        <v>0.1921488622196973</v>
       </c>
       <c r="Q4">
-        <v>20.54241139775377</v>
+        <v>7.037851988041</v>
       </c>
       <c r="R4">
-        <v>184.881702579784</v>
+        <v>63.340667892369</v>
       </c>
       <c r="S4">
-        <v>0.1419339036479569</v>
+        <v>0.09473874545211988</v>
       </c>
       <c r="T4">
-        <v>0.1419339036479569</v>
+        <v>0.09473874545211988</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.9137960000000001</v>
       </c>
       <c r="I5">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="J5">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.005965999999999999</v>
+        <v>0.0006136666666666667</v>
       </c>
       <c r="N5">
-        <v>0.017898</v>
+        <v>0.001841</v>
       </c>
       <c r="O5">
-        <v>0.00125947234315407</v>
+        <v>0.000129696697123199</v>
       </c>
       <c r="P5">
-        <v>0.001259472343154069</v>
+        <v>0.000129696697123199</v>
       </c>
       <c r="Q5">
-        <v>0.001817235645333333</v>
+        <v>0.0001869220484444445</v>
       </c>
       <c r="R5">
-        <v>0.016355120808</v>
+        <v>0.001682298436</v>
       </c>
       <c r="S5">
-        <v>1.255584575716254E-05</v>
+        <v>2.516216652049301E-06</v>
       </c>
       <c r="T5">
-        <v>1.255584575716254E-05</v>
+        <v>2.516216652049301E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.9137960000000001</v>
       </c>
       <c r="I6">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="J6">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>11.465328</v>
       </c>
       <c r="O6">
-        <v>0.8068087787009702</v>
+        <v>0.8077214410831794</v>
       </c>
       <c r="P6">
-        <v>0.8068087787009701</v>
+        <v>0.8077214410831794</v>
       </c>
       <c r="Q6">
         <v>1.164107873898667</v>
@@ -818,10 +818,10 @@
         <v>10.476970865088</v>
       </c>
       <c r="S6">
-        <v>0.008043183032924178</v>
+        <v>0.01567042326714129</v>
       </c>
       <c r="T6">
-        <v>0.008043183032924176</v>
+        <v>0.01567042326714129</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.9137960000000001</v>
       </c>
       <c r="I7">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="J7">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>2.727487</v>
       </c>
       <c r="O7">
-        <v>0.1919317489558758</v>
+        <v>0.1921488622196973</v>
       </c>
       <c r="P7">
-        <v>0.1919317489558757</v>
+        <v>0.1921488622196973</v>
       </c>
       <c r="Q7">
         <v>0.2769296345168889</v>
@@ -880,10 +880,10 @@
         <v>2.492366710652</v>
       </c>
       <c r="S7">
-        <v>0.001913392897344172</v>
+        <v>0.003727837157875064</v>
       </c>
       <c r="T7">
-        <v>0.001913392897344172</v>
+        <v>0.003727837157875064</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.654706</v>
+        <v>7.654706000000001</v>
       </c>
       <c r="H8">
         <v>22.964118</v>
       </c>
       <c r="I8">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="J8">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -924,28 +924,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.005965999999999999</v>
+        <v>0.0006136666666666667</v>
       </c>
       <c r="N8">
-        <v>0.017898</v>
+        <v>0.001841</v>
       </c>
       <c r="O8">
-        <v>0.00125947234315407</v>
+        <v>0.000129696697123199</v>
       </c>
       <c r="P8">
-        <v>0.001259472343154069</v>
+        <v>0.000129696697123199</v>
       </c>
       <c r="Q8">
-        <v>0.04566797599599999</v>
+        <v>0.004697437915333334</v>
       </c>
       <c r="R8">
-        <v>0.4110117839639999</v>
+        <v>0.04227694123800001</v>
       </c>
       <c r="S8">
-        <v>0.0003155342369164233</v>
+        <v>6.323369341868984E-05</v>
       </c>
       <c r="T8">
-        <v>0.0003155342369164232</v>
+        <v>6.323369341868984E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.654706</v>
+        <v>7.654706000000001</v>
       </c>
       <c r="H9">
         <v>22.964118</v>
       </c>
       <c r="I9">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="J9">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>11.465328</v>
       </c>
       <c r="O9">
-        <v>0.8068087787009702</v>
+        <v>0.8077214410831794</v>
       </c>
       <c r="P9">
-        <v>0.8068087787009701</v>
+        <v>0.8077214410831794</v>
       </c>
       <c r="Q9">
         <v>29.254571677856</v>
@@ -1004,10 +1004,10 @@
         <v>263.291145100704</v>
       </c>
       <c r="S9">
-        <v>0.2021289262194939</v>
+        <v>0.3938050166739382</v>
       </c>
       <c r="T9">
-        <v>0.2021289262194939</v>
+        <v>0.3938050166739382</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.654706</v>
+        <v>7.654706000000001</v>
       </c>
       <c r="H10">
         <v>22.964118</v>
       </c>
       <c r="I10">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="J10">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>2.727487</v>
       </c>
       <c r="O10">
-        <v>0.1919317489558758</v>
+        <v>0.1921488622196973</v>
       </c>
       <c r="P10">
-        <v>0.1919317489558757</v>
+        <v>0.1921488622196973</v>
       </c>
       <c r="Q10">
-        <v>6.959370367940666</v>
+        <v>6.959370367940667</v>
       </c>
       <c r="R10">
-        <v>62.63433331146599</v>
+        <v>62.63433331146601</v>
       </c>
       <c r="S10">
-        <v>0.04808445241057463</v>
+        <v>0.09368227960970238</v>
       </c>
       <c r="T10">
-        <v>0.04808445241057462</v>
+        <v>0.09368227960970238</v>
       </c>
     </row>
   </sheetData>
